--- a/Tools/RefractiveIndexData.xlsx
+++ b/Tools/RefractiveIndexData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{8BFC6142-179B-4963-BCF5-C970B3EC291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FE91A1-E3B4-463B-9AC7-3DEBCD10E2D0}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{8BFC6142-179B-4963-BCF5-C970B3EC291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF19EE3-4A1A-478D-BD01-8A4D37EC5EA6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E40A4FD7-624A-4C30-AD06-6BC279D0FD12}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E40A4FD7-624A-4C30-AD06-6BC279D0FD12}"/>
   </bookViews>
   <sheets>
     <sheet name="CDGM" sheetId="1" r:id="rId1"/>
@@ -3743,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495CA8EA-2D5A-474F-A0EB-32102758E3F8}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="G237" sqref="G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5177,19 +5177,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>1.6930190000000001</v>
+        <v>1.69301622986728</v>
       </c>
       <c r="C72">
-        <v>1.6968000000000001</v>
+        <v>1.69680122685798</v>
       </c>
       <c r="D72">
-        <v>1.699757</v>
+        <v>1.69975852742051</v>
       </c>
       <c r="E72">
-        <v>1.7054229999999999</v>
+        <v>1.7054148667262501</v>
       </c>
       <c r="F72">
-        <v>1.7121569999999999</v>
+        <v>1.7121229975361201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6597,19 +6597,19 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>1.7324520000000001</v>
+        <v>1.7324458443414501</v>
       </c>
       <c r="C143">
-        <v>1.74</v>
+        <v>1.7400054864527199</v>
       </c>
       <c r="D143">
-        <v>1.7461690000000001</v>
+        <v>1.7461747436930899</v>
       </c>
       <c r="E143">
-        <v>1.7586040000000001</v>
+        <v>1.75860230798166</v>
       </c>
       <c r="F143">
-        <v>1.774502</v>
+        <v>1.77451861978553</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -8397,19 +8397,19 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>1.4951430000000001</v>
+        <v>1.49467258907158</v>
       </c>
       <c r="C233">
-        <v>1.4970000000000001</v>
+        <v>1.4965300049258301</v>
       </c>
       <c r="D233">
-        <v>1.498454</v>
+        <v>1.49798389040386</v>
       </c>
       <c r="E233">
-        <v>1.501233</v>
+        <v>1.5007626076207701</v>
       </c>
       <c r="F233">
-        <v>1.504515</v>
+        <v>1.5040445702513501</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,7 +9887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1122AEC7-5077-426A-952C-01BE50550EA3}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
